--- a/biology/Botanique/Pois_zombi/Pois_zombi.xlsx
+++ b/biology/Botanique/Pois_zombi/Pois_zombi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,16 +490,18 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Pois zombi, ou Pwa zonbi,  est un nom vernaculaire qui s'applique aux Antilles à plusieurs espèces de Fabaceae (légumineuses) :
-Canavalia rosea[1].
-Centrosema pubescens[2]  ;
-Crotalaria incana[1].
-Crotalaria retusa[1],[3] ;
-Crotalaria verrucosa[1].
-Macroptilium lathyroides[1].
-Vigna vexillata[4]  ;</t>
+Canavalia rosea.
+Centrosema pubescens  ;
+Crotalaria incana.
+Crotalaria retusa, ;
+Crotalaria verrucosa.
+Macroptilium lathyroides.
+Vigna vexillata  ;</t>
         </is>
       </c>
     </row>
